--- a/База знаний.xlsx
+++ b/База знаний.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyam\Desktop\schoolDS_progect\ai_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAA6120-104F-48F6-A93C-A64B661AA340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D77AB-A310-438F-B568-0C8BFEE2333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,8 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,159 +449,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="190.5703125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/База знаний.xlsx
+++ b/База знаний.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyam\Desktop\schoolDS_progect\ai_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D77AB-A310-438F-B568-0C8BFEE2333F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1B31FC-57FE-4E8F-8BBA-E562BC04F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
